--- a/artfynd/A 37576-2025 artfynd.xlsx
+++ b/artfynd/A 37576-2025 artfynd.xlsx
@@ -785,7 +785,7 @@
         <v>127804095</v>
       </c>
       <c r="B3" t="n">
-        <v>80061</v>
+        <v>80221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 37576-2025 artfynd.xlsx
+++ b/artfynd/A 37576-2025 artfynd.xlsx
@@ -785,7 +785,7 @@
         <v>127804095</v>
       </c>
       <c r="B3" t="n">
-        <v>80221</v>
+        <v>80222</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 37576-2025 artfynd.xlsx
+++ b/artfynd/A 37576-2025 artfynd.xlsx
@@ -785,7 +785,7 @@
         <v>127804095</v>
       </c>
       <c r="B3" t="n">
-        <v>80222</v>
+        <v>80223</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
